--- a/Tablas-Administrador-de-trabajos.xlsx
+++ b/Tablas-Administrador-de-trabajos.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$O$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$O$24</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="58">
   <si>
     <t>PK</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>DATETIME</t>
+  </si>
+  <si>
+    <t>numero_remito</t>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
   </si>
 </sst>
 </file>
@@ -336,7 +342,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -345,19 +358,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,10 +647,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="O24" sqref="A1:O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,26 +674,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="10"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="15"/>
+      <c r="E1" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="14"/>
-      <c r="G1" s="10"/>
-      <c r="I1" s="9" t="s">
+      <c r="G1" s="15"/>
+      <c r="I1" s="13" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="14"/>
-      <c r="K1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="K1" s="15"/>
+      <c r="M1" s="13" t="s">
         <v>20</v>
       </c>
       <c r="N1" s="14"/>
-      <c r="O1" s="10"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -745,14 +751,14 @@
         <v>53</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="10" t="s">
         <v>47</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>53</v>
       </c>
       <c r="M3" s="3"/>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="10" t="s">
         <v>46</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -770,7 +776,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="10" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -787,30 +793,30 @@
       <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="10"/>
-      <c r="M5" s="9" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+      <c r="M5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="10"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="14"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="15"/>
       <c r="I6" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,10 +839,10 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>0</v>
@@ -866,12 +872,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -903,6 +909,13 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="5" t="s">
         <v>7</v>
@@ -929,14 +942,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="10"/>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="1"/>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -960,15 +968,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
       <c r="E11" s="1"/>
       <c r="F11" s="5" t="s">
         <v>14</v>
@@ -992,17 +996,17 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>1</v>
+      <c r="A12" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1016,7 +1020,7 @@
         <v>48</v>
       </c>
       <c r="M12" s="3"/>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="O12" s="4" t="s">
@@ -1024,40 +1028,49 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>48</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="9" t="s">
         <v>26</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -1065,27 +1078,18 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+      <c r="E16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="10"/>
-      <c r="E16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
       <c r="E17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1095,24 +1099,26 @@
       <c r="G17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="12"/>
-      <c r="M17" s="11" t="s">
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="M17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="12"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="18"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="B18" s="5" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="5" t="s">
@@ -1143,10 +1149,10 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="5" t="s">
@@ -1177,10 +1183,10 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="5" t="s">
@@ -1207,7 +1213,7 @@
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>50</v>
@@ -1237,7 +1243,7 @@
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>50</v>
@@ -1249,38 +1255,47 @@
       <c r="G22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="15" t="s">
+      <c r="I22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K22" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="N22" s="15" t="s">
+      <c r="K22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O22" s="18" t="s">
+      <c r="O22" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="15" t="s">
+    </row>
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1293,8 +1308,8 @@
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E1:G1"/>
